--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cort-Sstr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cort-Sstr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,7 +79,7 @@
     <t>FAPs</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
+    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Cort</t>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,10 +540,10 @@
         <v>0.77603</v>
       </c>
       <c r="I2">
-        <v>0.7599464924341242</v>
+        <v>0.9158046909573684</v>
       </c>
       <c r="J2">
-        <v>0.7599464924341243</v>
+        <v>0.9158046909573684</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,10 +558,10 @@
         <v>1.858133</v>
       </c>
       <c r="O2">
-        <v>0.9858002926418299</v>
+        <v>0.9266932386159046</v>
       </c>
       <c r="P2">
-        <v>0.98580029264183</v>
+        <v>0.9266932386159047</v>
       </c>
       <c r="Q2">
         <v>0.1602185502211111</v>
@@ -570,10 +570,10 @@
         <v>1.44196695199</v>
       </c>
       <c r="S2">
-        <v>0.7491554746336918</v>
+        <v>0.8486700150029214</v>
       </c>
       <c r="T2">
-        <v>0.7491554746336919</v>
+        <v>0.8486700150029214</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>0.77603</v>
       </c>
       <c r="I3">
-        <v>0.7599464924341242</v>
+        <v>0.9158046909573684</v>
       </c>
       <c r="J3">
-        <v>0.7599464924341243</v>
+        <v>0.9158046909573684</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,10 +620,10 @@
         <v>0.026765</v>
       </c>
       <c r="O3">
-        <v>0.01419970735817004</v>
+        <v>0.01334831496537368</v>
       </c>
       <c r="P3">
-        <v>0.01419970735817004</v>
+        <v>0.01334831496537368</v>
       </c>
       <c r="Q3">
         <v>0.002307826994444444</v>
@@ -632,15 +632,15 @@
         <v>0.02077044295</v>
       </c>
       <c r="S3">
-        <v>0.01079101780043235</v>
+        <v>0.01222444946166565</v>
       </c>
       <c r="T3">
-        <v>0.01079101780043235</v>
+        <v>0.01222444946166566</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -649,55 +649,55 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.2586766666666667</v>
+      </c>
+      <c r="H4">
+        <v>0.77603</v>
+      </c>
+      <c r="I4">
+        <v>0.9158046909573684</v>
+      </c>
+      <c r="J4">
+        <v>0.9158046909573684</v>
+      </c>
+      <c r="K4">
         <v>1</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G4">
-        <v>0.08171133333333334</v>
-      </c>
-      <c r="H4">
-        <v>0.245134</v>
-      </c>
-      <c r="I4">
-        <v>0.2400535075658758</v>
-      </c>
-      <c r="J4">
-        <v>0.2400535075658758</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M4">
-        <v>0.6193776666666667</v>
+        <v>0.04007466666666667</v>
       </c>
       <c r="N4">
-        <v>1.858133</v>
+        <v>0.120224</v>
       </c>
       <c r="O4">
-        <v>0.9858002926418299</v>
+        <v>0.05995844641872165</v>
       </c>
       <c r="P4">
-        <v>0.98580029264183</v>
+        <v>0.05995844641872165</v>
       </c>
       <c r="Q4">
-        <v>0.05061017498022223</v>
+        <v>0.01036638119111111</v>
       </c>
       <c r="R4">
-        <v>0.455491574822</v>
+        <v>0.09329743072</v>
       </c>
       <c r="S4">
-        <v>0.2366448180081381</v>
+        <v>0.05491022649278131</v>
       </c>
       <c r="T4">
-        <v>0.2366448180081382</v>
+        <v>0.05491022649278132</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -720,46 +720,170 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.08171133333333334</v>
+        <v>0.02378166666666667</v>
       </c>
       <c r="H5">
-        <v>0.245134</v>
+        <v>0.07134500000000001</v>
       </c>
       <c r="I5">
-        <v>0.2400535075658758</v>
+        <v>0.08419530904263167</v>
       </c>
       <c r="J5">
-        <v>0.2400535075658758</v>
+        <v>0.08419530904263166</v>
       </c>
       <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.6193776666666667</v>
+      </c>
+      <c r="N5">
+        <v>1.858133</v>
+      </c>
+      <c r="O5">
+        <v>0.9266932386159046</v>
+      </c>
+      <c r="P5">
+        <v>0.9266932386159047</v>
+      </c>
+      <c r="Q5">
+        <v>0.01472983320944445</v>
+      </c>
+      <c r="R5">
+        <v>0.132568498885</v>
+      </c>
+      <c r="S5">
+        <v>0.07802322361298331</v>
+      </c>
+      <c r="T5">
+        <v>0.07802322361298329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
         <v>1</v>
       </c>
-      <c r="L5">
+      <c r="F6">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M5">
+      <c r="G6">
+        <v>0.02378166666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.07134500000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.08419530904263167</v>
+      </c>
+      <c r="J6">
+        <v>0.08419530904263166</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
         <v>0.008921666666666666</v>
       </c>
-      <c r="N5">
+      <c r="N6">
         <v>0.026765</v>
       </c>
-      <c r="O5">
-        <v>0.01419970735817004</v>
-      </c>
-      <c r="P5">
-        <v>0.01419970735817004</v>
-      </c>
-      <c r="Q5">
-        <v>0.0007290012788888889</v>
-      </c>
-      <c r="R5">
-        <v>0.00656101151</v>
-      </c>
-      <c r="S5">
-        <v>0.003408689557737694</v>
-      </c>
-      <c r="T5">
-        <v>0.003408689557737695</v>
+      <c r="O6">
+        <v>0.01334831496537368</v>
+      </c>
+      <c r="P6">
+        <v>0.01334831496537368</v>
+      </c>
+      <c r="Q6">
+        <v>0.0002121721027777778</v>
+      </c>
+      <c r="R6">
+        <v>0.001909548925</v>
+      </c>
+      <c r="S6">
+        <v>0.001123865503708022</v>
+      </c>
+      <c r="T6">
+        <v>0.001123865503708022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.02378166666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.07134500000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.08419530904263167</v>
+      </c>
+      <c r="J7">
+        <v>0.08419530904263166</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.04007466666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.120224</v>
+      </c>
+      <c r="O7">
+        <v>0.05995844641872165</v>
+      </c>
+      <c r="P7">
+        <v>0.05995844641872165</v>
+      </c>
+      <c r="Q7">
+        <v>0.0009530423644444446</v>
+      </c>
+      <c r="R7">
+        <v>0.008577381280000001</v>
+      </c>
+      <c r="S7">
+        <v>0.005048219925940341</v>
+      </c>
+      <c r="T7">
+        <v>0.005048219925940341</v>
       </c>
     </row>
   </sheetData>
